--- a/Tools/Luban/DataTables/Datas/F_副本.xlsx
+++ b/Tools/Luban/DataTables/Datas/F_副本.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1_Game_Data\Unity\2025TTGJ\Tools\Luban\DataTables\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangwencheng/UnityProject/2025TTGJ/Tools/Luban/DataTables/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D06C473-7BFE-4680-AB5B-A8A52F594B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBAB134-7DFE-1042-B2C1-17083A384046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9690" yWindow="2550" windowWidth="28670" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1260" windowWidth="28680" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -48,10 +48,6 @@
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>##备注</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>唯一id</t>
@@ -132,18 +128,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1#2</t>
-  </si>
-  <si>
-    <t>2#3</t>
-  </si>
-  <si>
-    <t>2#4</t>
-  </si>
-  <si>
-    <t>itemid#数量&amp;itemid#数量</t>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -152,39 +136,68 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>100#200</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小金币数#最大金币数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>血量增加护盾</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>最小等级#最大等级</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001#999&amp;2001#30</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>##</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>(map#sep=,|),int,int</t>
+  </si>
+  <si>
+    <t>1001,10|2001,30</t>
+  </si>
+  <si>
+    <t>1001,10|2001,31</t>
+  </si>
+  <si>
+    <t>1001,10|2001,32</t>
+  </si>
+  <si>
+    <t>1001,10|2001,33</t>
+  </si>
+  <si>
+    <t>1001,10|2001,34</t>
+  </si>
+  <si>
+    <t>最小等级 最大等级</t>
+  </si>
+  <si>
+    <t>最小金币数 最大金币数</t>
+  </si>
+  <si>
+    <t>itemid 数量 itemid 数量</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>(list#sep=,),int</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -192,7 +205,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF1F2329"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -200,7 +213,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -209,7 +222,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF1F2329"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -218,7 +231,7 @@
       <b/>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -226,16 +239,23 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -361,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -393,12 +413,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -677,163 +700,174 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.1640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" style="1"/>
-    <col min="2" max="12" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="13.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5" style="1" customWidth="1"/>
     <col min="13" max="16384" width="12.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="C4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="F4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="10">
         <v>1001</v>
       </c>
@@ -847,19 +881,23 @@
       <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>30</v>
+      <c r="F5" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="H5" s="12">
+        <v>100200</v>
+      </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="b">
         <v>0</v>
       </c>
       <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L5" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="10">
         <v>1002</v>
       </c>
@@ -873,19 +911,23 @@
       <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>31</v>
+      <c r="F6" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="H6" s="12">
+        <v>100200</v>
+      </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="b">
         <v>0</v>
       </c>
       <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L6" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="10">
         <v>1003</v>
@@ -900,19 +942,23 @@
       <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>31</v>
+      <c r="F7" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="H7" s="12">
+        <v>100200</v>
+      </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L7" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="10">
         <v>1004</v>
@@ -927,19 +973,23 @@
       <c r="E8" s="10">
         <v>1</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>32</v>
+      <c r="F8" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="H8" s="12">
+        <v>100200</v>
+      </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10" t="b">
         <v>0</v>
       </c>
       <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L8" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="10">
         <v>1006</v>
@@ -958,8 +1008,8 @@
       <c r="G9" s="10">
         <v>2</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>36</v>
+      <c r="H9" s="12">
+        <v>100200</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10" t="b">
@@ -967,14 +1017,14 @@
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -988,35 +1038,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -1030,7 +1052,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1044,7 +1066,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1058,7 +1080,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1072,7 +1094,7 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1086,7 +1108,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1100,7 +1122,7 @@
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1114,7 +1136,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1128,7 +1150,7 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1142,16 +1164,16 @@
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1159,7 +1181,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1167,7 +1189,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1175,7 +1197,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1183,7 +1205,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1191,7 +1213,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1199,7 +1221,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1207,7 +1229,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1215,7 +1237,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1223,7 +1245,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1231,7 +1253,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1239,7 +1261,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1247,7 +1269,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1255,7 +1277,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1263,7 +1285,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1271,7 +1293,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1279,7 +1301,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1287,7 +1309,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1295,7 +1317,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1303,7 +1325,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1311,7 +1333,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1319,7 +1341,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1327,7 +1349,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1335,7 +1357,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1343,7 +1365,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1351,7 +1373,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1359,7 +1381,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1367,7 +1389,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1375,7 +1397,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1383,7 +1405,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1391,7 +1413,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1399,7 +1421,7 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1407,7 +1429,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1415,7 +1437,7 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1423,7 +1445,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1431,7 +1453,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1439,7 +1461,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1447,7 +1469,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1455,7 +1477,7 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1463,7 +1485,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1471,7 +1493,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1479,7 +1501,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1487,7 +1509,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1495,7 +1517,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1503,7 +1525,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1511,7 +1533,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1519,7 +1541,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1527,7 +1549,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1535,7 +1557,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1543,7 +1565,7 @@
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1551,7 +1573,7 @@
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1559,7 +1581,7 @@
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1567,7 +1589,7 @@
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1575,7 +1597,7 @@
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -1583,7 +1605,7 @@
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1591,7 +1613,7 @@
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -1599,7 +1621,7 @@
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -1607,7 +1629,7 @@
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -1615,7 +1637,7 @@
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -1623,7 +1645,7 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -1631,7 +1653,7 @@
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -1639,7 +1661,7 @@
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -1647,7 +1669,7 @@
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -1655,7 +1677,7 @@
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -1663,7 +1685,7 @@
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -1671,7 +1693,7 @@
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -1679,7 +1701,7 @@
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -1687,7 +1709,7 @@
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -1695,7 +1717,7 @@
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -1703,7 +1725,7 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -1711,7 +1733,7 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -1719,7 +1741,7 @@
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -1727,7 +1749,7 @@
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -1735,7 +1757,7 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -1743,7 +1765,7 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -1751,7 +1773,7 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -1759,7 +1781,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -1767,7 +1789,7 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -1775,7 +1797,7 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -1783,7 +1805,7 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -1791,7 +1813,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -1799,7 +1821,7 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -1807,7 +1829,7 @@
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -1815,7 +1837,7 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -1823,7 +1845,7 @@
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -1831,7 +1853,7 @@
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -1839,7 +1861,7 @@
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -1847,7 +1869,7 @@
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -1855,7 +1877,7 @@
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -1863,7 +1885,7 @@
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -1871,7 +1893,7 @@
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -1879,7 +1901,7 @@
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -1887,7 +1909,7 @@
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -1895,7 +1917,7 @@
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -1903,7 +1925,7 @@
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -1911,7 +1933,7 @@
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -1919,7 +1941,7 @@
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -1927,7 +1949,7 @@
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -1935,7 +1957,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -1943,7 +1965,7 @@
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -1951,7 +1973,7 @@
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -1959,7 +1981,7 @@
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -1967,7 +1989,7 @@
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -1975,7 +1997,7 @@
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -1983,7 +2005,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -1991,7 +2013,7 @@
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -1999,7 +2021,7 @@
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2007,7 +2029,7 @@
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2015,7 +2037,7 @@
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2023,7 +2045,7 @@
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -2031,7 +2053,7 @@
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -2039,7 +2061,7 @@
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2047,7 +2069,7 @@
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -2055,7 +2077,7 @@
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -2063,7 +2085,7 @@
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -2071,7 +2093,7 @@
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -2079,7 +2101,7 @@
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -2087,7 +2109,7 @@
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -2095,7 +2117,7 @@
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -2103,7 +2125,7 @@
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -2111,7 +2133,7 @@
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -2119,7 +2141,7 @@
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -2127,7 +2149,7 @@
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -2135,7 +2157,7 @@
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -2143,7 +2165,7 @@
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -2151,7 +2173,7 @@
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -2159,7 +2181,7 @@
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -2167,7 +2189,7 @@
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -2175,7 +2197,7 @@
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -2183,7 +2205,7 @@
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -2191,7 +2213,7 @@
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -2199,7 +2221,7 @@
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -2207,7 +2229,7 @@
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -2215,7 +2237,7 @@
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -2223,7 +2245,7 @@
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -2231,7 +2253,7 @@
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -2239,7 +2261,7 @@
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -2247,7 +2269,7 @@
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -2255,7 +2277,7 @@
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -2263,7 +2285,7 @@
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -2271,7 +2293,7 @@
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -2279,7 +2301,7 @@
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -2287,7 +2309,7 @@
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -2295,7 +2317,7 @@
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -2303,7 +2325,7 @@
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -2311,7 +2333,7 @@
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -2319,7 +2341,7 @@
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -2327,7 +2349,7 @@
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -2335,7 +2357,7 @@
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -2343,7 +2365,7 @@
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -2351,7 +2373,7 @@
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -2359,7 +2381,7 @@
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -2367,7 +2389,7 @@
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -2375,7 +2397,7 @@
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -2383,7 +2405,7 @@
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -2391,7 +2413,7 @@
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
